--- a/Documenti/GanttChart.xlsx
+++ b/Documenti/GanttChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GPOI\tournament creator\Tournament-Creator\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.eccher\Documents\GitHub\Tournament-Creator\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Days to Complete</t>
-  </si>
-  <si>
     <t>Create Tournaments</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>GUI [Graphical Use Interface]</t>
+  </si>
+  <si>
+    <t>Day to Complete</t>
   </si>
 </sst>
 </file>
@@ -274,10 +274,10 @@
                   <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43166</c:v>
+                  <c:v>43178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43171</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,7 +297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Days to Complete</c:v>
+                  <c:v>Day to Complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -325,19 +325,19 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,12 +1418,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>43157</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>43157</v>
@@ -1449,57 +1449,57 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>43164</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>43164</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>43164</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>43166</v>
+        <v>43178</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>43171</v>
+        <v>43213</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
